--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2821.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2821.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.175553764112526</v>
+        <v>0.9473896622657776</v>
       </c>
       <c r="B1">
-        <v>2.440006313229465</v>
+        <v>2.104326725006104</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.634419918060303</v>
       </c>
       <c r="D1">
-        <v>2.363392227733135</v>
+        <v>2.965532541275024</v>
       </c>
       <c r="E1">
-        <v>1.23396483238412</v>
+        <v>1.421232223510742</v>
       </c>
     </row>
   </sheetData>
